--- a/data/trans_camb/P75-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P75-Provincia-trans_camb.xlsx
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,61; -22,04</t>
+          <t>-30,6; -22,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -23,28</t>
+          <t>-32,04; -23,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,79; -23,53</t>
+          <t>-29,84; -23,98</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -94,76</t>
+          <t>-100,0; -94,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-97,91; -88,89</t>
+          <t>-97,86; -89,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,42; -93,7</t>
+          <t>-98,38; -93,46</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,47</t>
+          <t>0,27; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,48</t>
+          <t>-0,0; 2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,85</t>
+          <t>0,27; 2,01</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 0,3</t>
+          <t>-9,26; -0,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -0,42</t>
+          <t>-10,01; -0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,92</t>
+          <t>-8,44; -1,73</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 2,45</t>
+          <t>-47,66; 0,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,37; -4,25</t>
+          <t>-49,37; -3,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,3; -11,79</t>
+          <t>-42,85; -10,71</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-55,9; -39,04</t>
+          <t>-56,15; -39,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-55,23; -39,78</t>
+          <t>-55,57; -39,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,71; -42,13</t>
+          <t>-53,76; -42,08</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,4; -49,21</t>
+          <t>-65,74; -49,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,39; -47,37</t>
+          <t>-62,91; -47,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,92; -50,95</t>
+          <t>-61,95; -50,41</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,15</t>
+          <t>1,52; 6,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,57</t>
+          <t>2,33; 8,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,4</t>
+          <t>2,51; 6,32</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>82,52; —</t>
+          <t>68,29; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>217,36; —</t>
+          <t>220,97; —</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -2,65</t>
+          <t>-8,41; -2,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,15</t>
+          <t>-5,61; 0,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -2,27</t>
+          <t>-6,24; -2,17</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-77,22; -32,17</t>
+          <t>-77,82; -37,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 4,47</t>
+          <t>-56,43; 3,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,25; -28,81</t>
+          <t>-63,72; -28,39</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-25,86; -16,28</t>
+          <t>-26,6; -16,18</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -16,62</t>
+          <t>-26,04; -16,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -18,01</t>
+          <t>-24,82; -18,01</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-47,52; -32,63</t>
+          <t>-48,14; -32,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-48,48; -33,27</t>
+          <t>-47,9; -32,17</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-46,29; -35,47</t>
+          <t>-45,63; -35,26</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -10,25</t>
+          <t>-14,21; -10,18</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -10,05</t>
+          <t>-13,94; -10,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -10,76</t>
+          <t>-13,43; -10,7</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -40,74</t>
+          <t>-51,48; -40,38</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-49,97; -38,87</t>
+          <t>-49,74; -38,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,19; -41,74</t>
+          <t>-49,01; -41,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P75-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P75-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -22,16</t>
+          <t>-30,92; -22,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,04; -23,12</t>
+          <t>-32,05; -23,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -23,98</t>
+          <t>-30,01; -23,91</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -94,6</t>
+          <t>-100,0; -93,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-97,86; -89,9</t>
+          <t>-98,0; -89,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,38; -93,46</t>
+          <t>-98,17; -93,13</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,36</t>
+          <t>0,27; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,51</t>
+          <t>-0,24; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,01</t>
+          <t>0,15; 1,8</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,02</t>
+          <t>-9,65; 0,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -0,89</t>
+          <t>-10,38; -0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,73</t>
+          <t>-8,26; -1,75</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 0,74</t>
+          <t>-48,4; 2,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,37; -3,93</t>
+          <t>-49,83; -1,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,85; -10,71</t>
+          <t>-42,54; -10,64</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-56,15; -39,18</t>
+          <t>-55,37; -39,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-55,57; -39,89</t>
+          <t>-55,66; -39,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,76; -42,08</t>
+          <t>-53,82; -41,97</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,74; -49,24</t>
+          <t>-65,24; -49,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -47,33</t>
+          <t>-62,54; -46,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,95; -50,41</t>
+          <t>-62,29; -50,29</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,38</t>
+          <t>1,42; 6,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,14</t>
+          <t>2,35; 8,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,32</t>
+          <t>2,52; 6,38</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>68,29; —</t>
+          <t>99,62; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>220,97; —</t>
+          <t>160,6; —</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -2,79</t>
+          <t>-8,9; -2,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,04</t>
+          <t>-5,46; -0,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -2,17</t>
+          <t>-6,28; -2,22</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-77,82; -37,4</t>
+          <t>-78,33; -38,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 3,17</t>
+          <t>-57,79; 0,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -28,39</t>
+          <t>-62,68; -27,05</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -16,18</t>
+          <t>-26,67; -16,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -16,3</t>
+          <t>-26,29; -16,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -18,01</t>
+          <t>-24,67; -17,84</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -32,5</t>
+          <t>-47,96; -33,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-47,9; -32,17</t>
+          <t>-48,17; -33,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -35,26</t>
+          <t>-45,51; -35,11</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -10,18</t>
+          <t>-14,2; -10,2</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -10,08</t>
+          <t>-13,93; -10,12</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,43; -10,7</t>
+          <t>-13,64; -10,86</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -40,38</t>
+          <t>-51,37; -40,38</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-49,74; -38,89</t>
+          <t>-50,15; -39,43</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,01; -41,47</t>
+          <t>-49,55; -41,7</t>
         </is>
       </c>
     </row>
